--- a/2019년 소모품 신청서_수정.xlsx
+++ b/2019년 소모품 신청서_수정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MDP_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D17090E-68A8-46C3-B785-26070C569267}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D451475-5885-4AE0-B9EC-1523453A4667}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13716" yWindow="4140" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018년 1차" sheetId="10" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -658,6 +658,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="굴림"/>
       <family val="3"/>
@@ -852,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -970,12 +993,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -999,46 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,6 +1029,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1061,55 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1446,16 +1475,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -1468,76 +1497,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1872,10 +1901,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1887,36 +1916,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1925,12 +1954,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -1954,13 +1983,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -1971,6 +1993,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2009,16 +2038,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2031,76 +2060,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2478,10 +2507,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2493,36 +2522,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2531,12 +2560,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2560,13 +2589,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2577,6 +2599,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2617,16 +2646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2639,76 +2668,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -3116,10 +3145,10 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3131,36 +3160,36 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3169,12 +3198,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3198,13 +3227,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3215,6 +3237,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3241,8 +3270,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3259,16 +3288,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -3281,76 +3310,76 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -3463,7 +3492,7 @@
       <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="82" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -3490,23 +3519,23 @@
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="83" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="44">
-        <v>1</v>
+      <c r="E13" s="81">
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <v>85000</v>
       </c>
       <c r="G13" s="35">
-        <v>85000</v>
+        <v>170000</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>84</v>
@@ -3517,7 +3546,7 @@
       <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="42"/>
       <c r="D14" s="32"/>
       <c r="E14" s="25"/>
@@ -3530,10 +3559,10 @@
       <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="36"/>
       <c r="G15" s="35"/>
       <c r="H15" s="33"/>
@@ -3543,10 +3572,10 @@
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
       <c r="H16" s="33"/>
@@ -3738,9 +3767,9 @@
       <c r="A31" s="19">
         <v>23</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="27"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -3773,51 +3802,51 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="F34" s="37"/>
       <c r="G34" s="20">
         <f>SUM(G9:G33)</f>
-        <v>177800</v>
+        <v>262800</v>
       </c>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="79"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="69"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3826,12 +3855,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3855,13 +3884,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3872,6 +3894,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
